--- a/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
+++ b/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\India EPS\InputData UPDATE FOR INDIA\trans\VBDR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\VBDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533C4672-67FF-4D71-9252-323A982F1DA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="21072" windowHeight="13116"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="VBDR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,9 +58,6 @@
     <t>motorbikes</t>
   </si>
   <si>
-    <t>Discount Rate</t>
-  </si>
-  <si>
     <t>Chugh, Randy et al.</t>
   </si>
   <si>
@@ -82,19 +88,22 @@
     <t>Therefore, the estimates of 10% to 15% seem reasonable for the Indian market.</t>
   </si>
   <si>
-    <t>We take an average of these two rates to obtain the rate used in the EPS:</t>
-  </si>
-  <si>
     <t>We use this rate for all vehicle types, as data on non-LDV vehicle types</t>
   </si>
   <si>
     <t>are not available.</t>
+  </si>
+  <si>
+    <t>We take an average of these two rates:</t>
+  </si>
+  <si>
+    <t>Discount Rate (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -115,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,13 +156,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,6 +257,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -276,6 +309,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,99 +501,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -561,17 +616,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -580,7 +635,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -589,7 +644,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -598,7 +653,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -607,7 +662,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -616,7 +671,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
